--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifne-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifne-Ifnar2.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H2">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.35034833333334</v>
+        <v>33.16156633333333</v>
       </c>
       <c r="N2">
-        <v>100.051045</v>
+        <v>99.48469900000001</v>
       </c>
       <c r="O2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="P2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="Q2">
-        <v>1.687894479498333</v>
+        <v>3.327332081187667</v>
       </c>
       <c r="R2">
-        <v>15.191050315485</v>
+        <v>29.945988730689</v>
       </c>
       <c r="S2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="T2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H3">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>77.03389199999999</v>
       </c>
       <c r="O3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="P3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="Q3">
-        <v>1.299587436004</v>
+        <v>2.576449873868</v>
       </c>
       <c r="R3">
-        <v>11.696286924036</v>
+        <v>23.188048864812</v>
       </c>
       <c r="S3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="T3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H4">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.20708666666667</v>
+        <v>15.57007066666667</v>
       </c>
       <c r="N4">
-        <v>39.62126000000001</v>
+        <v>46.710212</v>
       </c>
       <c r="O4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="P4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="Q4">
-        <v>0.6684238632866667</v>
+        <v>1.562254180481333</v>
       </c>
       <c r="R4">
-        <v>6.01581476958</v>
+        <v>14.060287624332</v>
       </c>
       <c r="S4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="T4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H5">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.55277366666667</v>
+        <v>49.95841666666666</v>
       </c>
       <c r="N5">
-        <v>220.658321</v>
+        <v>149.87525</v>
       </c>
       <c r="O5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="P5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="Q5">
-        <v>3.722579428043666</v>
+        <v>5.012677653083333</v>
       </c>
       <c r="R5">
-        <v>33.503214852393</v>
+        <v>45.11409887775</v>
       </c>
       <c r="S5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="T5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
     </row>
   </sheetData>
